--- a/tabellen/concept/5.1/objectentabellen/objecten-concept-5.1-AM-assen-metreringen.xlsx
+++ b/tabellen/concept/5.1/objectentabellen/objecten-concept-5.1-AM-assen-metreringen.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\100289\OneDrive\GitHub\NLCS\tabellen\ontwikkeling\objectentabellen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\100289\OneDrive\GitHub\NLCS\tabellen\concept\5.1\objectentabellen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104289D8-8C2B-4BEF-AACE-053F091C3353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{4DDC720F-3B08-4F6D-83D5-A4EA19694ADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-1620" windowWidth="38640" windowHeight="21240" xr2:uid="{33B85129-3DB4-4F5A-BDE1-1ACE3D5A20C8}"/>
+    <workbookView xWindow="-38520" yWindow="-1620" windowWidth="38640" windowHeight="21240" xr2:uid="{BC75A9B1-2806-48E4-93C5-18FF1B01BE42}"/>
   </bookViews>
   <sheets>
     <sheet name="objecten-concept-5.1-AM-assen-m" sheetId="1" r:id="rId1"/>
@@ -18,20 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'objecten-concept-5.1-AM-assen-m'!$A$1:$BS$127</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -830,144 +817,147 @@
     <t>AS_WEG_ONDERHOUDSWEG_RECHT</t>
   </si>
   <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/3e9559db-2be5-4d36-a244-a0e9617e067e</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/16f73a54-8be0-46fa-8692-eef831461b46</t>
+  </si>
+  <si>
+    <t>AS_WEG_ONDERHOUDSWEG_CIRKEL</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/cf718540-a6e5-4550-899c-e01d5fee1282</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/273c5373-defd-4900-bf74-2ad02f68826d</t>
+  </si>
+  <si>
+    <t>AS_WEG_GEBIEDSONTSLUITINGSWEG_OVERGANG</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/911e51b0-548c-4831-8cda-7cd9da2344a3</t>
+  </si>
+  <si>
+    <t>AS_WEG_GEBIEDSONTSLUITINGSWEG_CIRKEL</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/c764f292-112e-4161-9306-415b8fc9d2ae</t>
+  </si>
+  <si>
+    <t>AS_WEG_GEBIEDSONTSLUITINGSWEG_RECHT</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/50b37998-c8d6-4e68-92e0-146e52285362</t>
+  </si>
+  <si>
+    <t>AS_WEG_PARALLELWEG_RECHT</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/32fc9550-eced-4ce6-84ac-0113a353da2a</t>
+  </si>
+  <si>
+    <t>AS_WEG_PARALLELWEG_CIRKEL</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/f4102701-3f3c-40b1-b14f-a79ee8a0356d</t>
+  </si>
+  <si>
+    <t>AS_WEG_PARALLELWEG_OVERGANG</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/bfbd20bf-ed84-45ad-90b9-9bba7d9df62c</t>
+  </si>
+  <si>
+    <t>AS_WEG_EIGENWEG_CIRKEL</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/fe49b1cb-70c8-4379-bcea-138350dd56d9</t>
+  </si>
+  <si>
+    <t>AS_WEG_EIGENWEG_OVERGANG</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/0a833ab7-30a9-4bbf-9f66-9c5c24f9b4f2</t>
+  </si>
+  <si>
+    <t>AS_WEG_EIGENWEG_RECHT</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/325eafa5-2e07-43bc-9abf-8cb04826fecb</t>
+  </si>
+  <si>
+    <t>AS_WEG_VERBINDINGSWEG_OVERGANG</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/b6a36ff5-70b6-4d8b-82a7-067b1c8067be</t>
+  </si>
+  <si>
+    <t>AS_WEG_VERBINDINGSWEG_CIRKEL</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/6b958bce-14e1-4250-8ed6-457f00bc5530</t>
+  </si>
+  <si>
+    <t>AS_WEG_VERBINDINGSWEG_RECHT</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/d423d959-a54d-4237-9319-9431675b18ca</t>
+  </si>
+  <si>
+    <t>AS_WEG_ERFTOEGANGSWEG_RECHT</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/7c2768c0-11ab-420b-8cf5-98a3e2720a09</t>
+  </si>
+  <si>
+    <t>AS_WEG_ERFTOEGANGSWEG_OVERGANG</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/ec054bd8-b69c-4df1-bf9d-3c5e447dc961</t>
+  </si>
+  <si>
+    <t>AS_WEG_ERFTOEGANGSWEG_CIRKEL</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/4f0df9fa-e18c-4c1e-a652-8597480e9a2e</t>
+  </si>
+  <si>
+    <t>AS_WEG_STROOMWEG_CIRKEL</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/bb96172d-44fe-4bf7-8d58-e287d98dad67</t>
+  </si>
+  <si>
+    <t>AS_WEG_STROOMWEG_OVERGANG</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/131e0544-16d1-4f07-920f-f8048131ba0e</t>
+  </si>
+  <si>
+    <t>AS_WEG_STROOMWEG_RECHT</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/2130f497-05de-4c6b-9858-62e1563ecac4</t>
+  </si>
+  <si>
+    <t>AS_WEG_HOOFDRIJBAAN_CIRKEL</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/d44ace30-536a-4fd5-aba0-f2fd7bcd6273</t>
+  </si>
+  <si>
+    <t>AS_WEG_HOOFDRIJBAAN_OVERGANG</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/52d78e2a-d04c-4dbb-af85-08e235259da7</t>
+  </si>
+  <si>
+    <t>AS_WEG_HOOFDRIJBAAN_RECHT</t>
+  </si>
+  <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/24cf97b2-f40a-40e4-958a-86f4a3494ff0</t>
   </si>
   <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/16f73a54-8be0-46fa-8692-eef831461b46</t>
-  </si>
-  <si>
-    <t>AS_WEG_ONDERHOUDSWEG_CIRKEL</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/cf718540-a6e5-4550-899c-e01d5fee1282</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/273c5373-defd-4900-bf74-2ad02f68826d</t>
-  </si>
-  <si>
-    <t>AS_WEG_GEBIEDSONTSLUITINGSWEG_OVERGANG</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/911e51b0-548c-4831-8cda-7cd9da2344a3</t>
-  </si>
-  <si>
-    <t>AS_WEG_GEBIEDSONTSLUITINGSWEG_CIRKEL</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/c764f292-112e-4161-9306-415b8fc9d2ae</t>
-  </si>
-  <si>
-    <t>AS_WEG_GEBIEDSONTSLUITINGSWEG_RECHT</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/50b37998-c8d6-4e68-92e0-146e52285362</t>
-  </si>
-  <si>
-    <t>AS_WEG_PARALLELWEG_RECHT</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/32fc9550-eced-4ce6-84ac-0113a353da2a</t>
-  </si>
-  <si>
-    <t>AS_WEG_PARALLELWEG_CIRKEL</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/f4102701-3f3c-40b1-b14f-a79ee8a0356d</t>
-  </si>
-  <si>
-    <t>AS_WEG_PARALLELWEG_OVERGANG</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/bfbd20bf-ed84-45ad-90b9-9bba7d9df62c</t>
-  </si>
-  <si>
-    <t>AS_WEG_EIGENWEG_CIRKEL</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/fe49b1cb-70c8-4379-bcea-138350dd56d9</t>
-  </si>
-  <si>
-    <t>AS_WEG_EIGENWEG_OVERGANG</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/0a833ab7-30a9-4bbf-9f66-9c5c24f9b4f2</t>
-  </si>
-  <si>
-    <t>AS_WEG_EIGENWEG_RECHT</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/325eafa5-2e07-43bc-9abf-8cb04826fecb</t>
-  </si>
-  <si>
-    <t>AS_WEG_VERBINDINGSWEG_OVERGANG</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/b6a36ff5-70b6-4d8b-82a7-067b1c8067be</t>
-  </si>
-  <si>
-    <t>AS_WEG_VERBINDINGSWEG_CIRKEL</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/6b958bce-14e1-4250-8ed6-457f00bc5530</t>
-  </si>
-  <si>
-    <t>AS_WEG_VERBINDINGSWEG_RECHT</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/d423d959-a54d-4237-9319-9431675b18ca</t>
-  </si>
-  <si>
-    <t>AS_WEG_ERFTOEGANGSWEG_RECHT</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/7c2768c0-11ab-420b-8cf5-98a3e2720a09</t>
-  </si>
-  <si>
-    <t>AS_WEG_ERFTOEGANGSWEG_OVERGANG</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/ec054bd8-b69c-4df1-bf9d-3c5e447dc961</t>
-  </si>
-  <si>
-    <t>AS_WEG_ERFTOEGANGSWEG_CIRKEL</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/4f0df9fa-e18c-4c1e-a652-8597480e9a2e</t>
-  </si>
-  <si>
-    <t>AS_WEG_STROOMWEG_CIRKEL</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/bb96172d-44fe-4bf7-8d58-e287d98dad67</t>
-  </si>
-  <si>
-    <t>AS_WEG_STROOMWEG_OVERGANG</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/131e0544-16d1-4f07-920f-f8048131ba0e</t>
-  </si>
-  <si>
-    <t>AS_WEG_STROOMWEG_RECHT</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/2130f497-05de-4c6b-9858-62e1563ecac4</t>
-  </si>
-  <si>
-    <t>AS_WEG_HOOFDRIJBAAN_CIRKEL</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/d44ace30-536a-4fd5-aba0-f2fd7bcd6273</t>
-  </si>
-  <si>
-    <t>AS_WEG_HOOFDRIJBAAN_OVERGANG</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/52d78e2a-d04c-4dbb-af85-08e235259da7</t>
-  </si>
-  <si>
-    <t>AS_WEG_HOOFDRIJBAAN_RECHT</t>
-  </si>
-  <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/654bb48d-82f8-4011-8e19-3583177d1fd4</t>
   </si>
   <si>
@@ -990,9 +980,6 @@
   </si>
   <si>
     <t>AS_PAD_FIETSPAD_RECHT</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/3e9559db-2be5-4d36-a244-a0e9617e067e</t>
   </si>
   <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/88d9a922-873d-4c19-882a-de39cea57c59</t>
@@ -1987,16 +1974,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1B4BD8D-D45C-47C4-BA12-9680DB674E92}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C640FC95-7351-4DD8-B2AB-BCEE86A36732}">
   <dimension ref="A1:BS127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="E142" sqref="E142"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57:XFD57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="48.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:71" x14ac:dyDescent="0.35">
@@ -11869,7 +11856,7 @@
     </row>
     <row r="51" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B51" t="s">
         <v>72</v>
@@ -11881,7 +11868,7 @@
         <v>81</v>
       </c>
       <c r="E51" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F51" t="s">
         <v>192</v>
@@ -11902,28 +11889,28 @@
         <v>79</v>
       </c>
       <c r="L51" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="M51">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N51" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="O51">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="P51" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="Q51">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R51" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="S51">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="T51" t="s">
         <v>81</v>
@@ -11944,28 +11931,28 @@
         <v>79</v>
       </c>
       <c r="Z51" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="AA51">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AB51" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="AC51">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AD51" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="AE51">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AF51" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="AG51">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AH51" t="s">
         <v>81</v>
@@ -11986,28 +11973,28 @@
         <v>79</v>
       </c>
       <c r="AN51" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="AO51">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AP51" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="AQ51">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AR51" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="AS51">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AT51" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="AU51">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AV51" t="s">
         <v>81</v>
@@ -12028,28 +12015,28 @@
         <v>79</v>
       </c>
       <c r="BB51" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="BC51">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="BD51" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="BE51">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="BF51" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="BG51">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="BH51" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="BI51">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="BJ51" t="s">
         <v>81</v>
@@ -12693,25 +12680,25 @@
         <v>264</v>
       </c>
       <c r="M55">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N55" t="s">
         <v>264</v>
       </c>
       <c r="O55">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="P55" t="s">
         <v>264</v>
       </c>
       <c r="Q55">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R55" t="s">
         <v>264</v>
       </c>
       <c r="S55">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="T55" t="s">
         <v>81</v>
@@ -12735,25 +12722,25 @@
         <v>264</v>
       </c>
       <c r="AA55">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AB55" t="s">
         <v>264</v>
       </c>
       <c r="AC55">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AD55" t="s">
         <v>264</v>
       </c>
       <c r="AE55">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AF55" t="s">
         <v>264</v>
       </c>
       <c r="AG55">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AH55" t="s">
         <v>81</v>
@@ -12777,25 +12764,25 @@
         <v>264</v>
       </c>
       <c r="AO55">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AP55" t="s">
         <v>264</v>
       </c>
       <c r="AQ55">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AR55" t="s">
         <v>264</v>
       </c>
       <c r="AS55">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AT55" t="s">
         <v>264</v>
       </c>
       <c r="AU55">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AV55" t="s">
         <v>81</v>
@@ -12819,25 +12806,25 @@
         <v>264</v>
       </c>
       <c r="BC55">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="BD55" t="s">
         <v>264</v>
       </c>
       <c r="BE55">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="BF55" t="s">
         <v>264</v>
       </c>
       <c r="BG55">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="BH55" t="s">
         <v>264</v>
       </c>
       <c r="BI55">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="BJ55" t="s">
         <v>81</v>
@@ -18937,7 +18924,7 @@
     </row>
     <row r="87" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B87" t="s">
         <v>72</v>
@@ -18949,7 +18936,7 @@
         <v>57</v>
       </c>
       <c r="E87" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F87" t="s">
         <v>186</v>
@@ -19134,7 +19121,7 @@
     </row>
     <row r="88" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B88" t="s">
         <v>72</v>
@@ -19146,7 +19133,7 @@
         <v>58</v>
       </c>
       <c r="E88" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F88" t="s">
         <v>186</v>
@@ -19331,7 +19318,7 @@
     </row>
     <row r="89" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B89" t="s">
         <v>72</v>
@@ -19343,7 +19330,7 @@
         <v>56</v>
       </c>
       <c r="E89" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F89" t="s">
         <v>186</v>
@@ -19367,25 +19354,25 @@
         <v>264</v>
       </c>
       <c r="M89">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N89" t="s">
         <v>264</v>
       </c>
       <c r="O89">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="P89" t="s">
         <v>264</v>
       </c>
       <c r="Q89">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R89" t="s">
         <v>264</v>
       </c>
       <c r="S89">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="T89" t="s">
         <v>81</v>
@@ -19409,25 +19396,25 @@
         <v>264</v>
       </c>
       <c r="AA89">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AB89" t="s">
         <v>264</v>
       </c>
       <c r="AC89">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AD89" t="s">
         <v>264</v>
       </c>
       <c r="AE89">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AF89" t="s">
         <v>264</v>
       </c>
       <c r="AG89">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AH89" t="s">
         <v>81</v>
@@ -19451,25 +19438,25 @@
         <v>264</v>
       </c>
       <c r="AO89">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AP89" t="s">
         <v>264</v>
       </c>
       <c r="AQ89">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AR89" t="s">
         <v>264</v>
       </c>
       <c r="AS89">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AT89" t="s">
         <v>264</v>
       </c>
       <c r="AU89">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AV89" t="s">
         <v>81</v>
@@ -19493,25 +19480,25 @@
         <v>264</v>
       </c>
       <c r="BC89">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="BD89" t="s">
         <v>264</v>
       </c>
       <c r="BE89">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="BF89" t="s">
         <v>264</v>
       </c>
       <c r="BG89">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="BH89" t="s">
         <v>264</v>
       </c>
       <c r="BI89">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="BJ89" t="s">
         <v>81</v>
@@ -20155,25 +20142,25 @@
         <v>264</v>
       </c>
       <c r="M93">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N93" t="s">
         <v>264</v>
       </c>
       <c r="O93">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="P93" t="s">
         <v>264</v>
       </c>
       <c r="Q93">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R93" t="s">
         <v>264</v>
       </c>
       <c r="S93">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="T93" t="s">
         <v>81</v>
@@ -20197,25 +20184,25 @@
         <v>264</v>
       </c>
       <c r="AA93">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AB93" t="s">
         <v>264</v>
       </c>
       <c r="AC93">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AD93" t="s">
         <v>264</v>
       </c>
       <c r="AE93">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AF93" t="s">
         <v>264</v>
       </c>
       <c r="AG93">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AH93" t="s">
         <v>81</v>
@@ -20239,25 +20226,25 @@
         <v>264</v>
       </c>
       <c r="AO93">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AP93" t="s">
         <v>264</v>
       </c>
       <c r="AQ93">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AR93" t="s">
         <v>264</v>
       </c>
       <c r="AS93">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AT93" t="s">
         <v>264</v>
       </c>
       <c r="AU93">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AV93" t="s">
         <v>81</v>
@@ -20281,25 +20268,25 @@
         <v>264</v>
       </c>
       <c r="BC93">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="BD93" t="s">
         <v>264</v>
       </c>
       <c r="BE93">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="BF93" t="s">
         <v>264</v>
       </c>
       <c r="BG93">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="BH93" t="s">
         <v>264</v>
       </c>
       <c r="BI93">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="BJ93" t="s">
         <v>81</v>
@@ -20943,25 +20930,25 @@
         <v>264</v>
       </c>
       <c r="M97">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N97" t="s">
         <v>264</v>
       </c>
       <c r="O97">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="P97" t="s">
         <v>264</v>
       </c>
       <c r="Q97">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R97" t="s">
         <v>264</v>
       </c>
       <c r="S97">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="T97" t="s">
         <v>81</v>
@@ -20985,25 +20972,25 @@
         <v>264</v>
       </c>
       <c r="AA97">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AB97" t="s">
         <v>264</v>
       </c>
       <c r="AC97">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AD97" t="s">
         <v>264</v>
       </c>
       <c r="AE97">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AF97" t="s">
         <v>264</v>
       </c>
       <c r="AG97">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AH97" t="s">
         <v>81</v>
@@ -21027,25 +21014,25 @@
         <v>264</v>
       </c>
       <c r="AO97">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AP97" t="s">
         <v>264</v>
       </c>
       <c r="AQ97">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AR97" t="s">
         <v>264</v>
       </c>
       <c r="AS97">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AT97" t="s">
         <v>264</v>
       </c>
       <c r="AU97">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AV97" t="s">
         <v>81</v>
@@ -21069,25 +21056,25 @@
         <v>264</v>
       </c>
       <c r="BC97">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="BD97" t="s">
         <v>264</v>
       </c>
       <c r="BE97">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="BF97" t="s">
         <v>264</v>
       </c>
       <c r="BG97">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="BH97" t="s">
         <v>264</v>
       </c>
       <c r="BI97">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="BJ97" t="s">
         <v>81</v>
@@ -21731,25 +21718,25 @@
         <v>264</v>
       </c>
       <c r="M101">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N101" t="s">
         <v>264</v>
       </c>
       <c r="O101">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="P101" t="s">
         <v>264</v>
       </c>
       <c r="Q101">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R101" t="s">
         <v>264</v>
       </c>
       <c r="S101">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="T101" t="s">
         <v>81</v>
@@ -21773,25 +21760,25 @@
         <v>264</v>
       </c>
       <c r="AA101">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AB101" t="s">
         <v>264</v>
       </c>
       <c r="AC101">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AD101" t="s">
         <v>264</v>
       </c>
       <c r="AE101">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AF101" t="s">
         <v>264</v>
       </c>
       <c r="AG101">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AH101" t="s">
         <v>81</v>
@@ -21815,25 +21802,25 @@
         <v>264</v>
       </c>
       <c r="AO101">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AP101" t="s">
         <v>264</v>
       </c>
       <c r="AQ101">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AR101" t="s">
         <v>264</v>
       </c>
       <c r="AS101">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AT101" t="s">
         <v>264</v>
       </c>
       <c r="AU101">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AV101" t="s">
         <v>81</v>
@@ -21857,25 +21844,25 @@
         <v>264</v>
       </c>
       <c r="BC101">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="BD101" t="s">
         <v>264</v>
       </c>
       <c r="BE101">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="BF101" t="s">
         <v>264</v>
       </c>
       <c r="BG101">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="BH101" t="s">
         <v>264</v>
       </c>
       <c r="BI101">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="BJ101" t="s">
         <v>81</v>
@@ -22519,25 +22506,25 @@
         <v>264</v>
       </c>
       <c r="M105">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N105" t="s">
         <v>264</v>
       </c>
       <c r="O105">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="P105" t="s">
         <v>264</v>
       </c>
       <c r="Q105">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R105" t="s">
         <v>264</v>
       </c>
       <c r="S105">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="T105" t="s">
         <v>81</v>
@@ -22561,25 +22548,25 @@
         <v>264</v>
       </c>
       <c r="AA105">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AB105" t="s">
         <v>264</v>
       </c>
       <c r="AC105">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AD105" t="s">
         <v>264</v>
       </c>
       <c r="AE105">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AF105" t="s">
         <v>264</v>
       </c>
       <c r="AG105">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AH105" t="s">
         <v>81</v>
@@ -22603,25 +22590,25 @@
         <v>264</v>
       </c>
       <c r="AO105">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AP105" t="s">
         <v>264</v>
       </c>
       <c r="AQ105">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AR105" t="s">
         <v>264</v>
       </c>
       <c r="AS105">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AT105" t="s">
         <v>264</v>
       </c>
       <c r="AU105">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AV105" t="s">
         <v>81</v>
@@ -22642,7 +22629,7 @@
         <v>79</v>
       </c>
       <c r="BB105" t="s">
-        <v>264</v>
+        <v>310</v>
       </c>
       <c r="BC105">
         <v>50</v>
@@ -22651,19 +22638,19 @@
         <v>264</v>
       </c>
       <c r="BE105">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="BF105" t="s">
         <v>264</v>
       </c>
       <c r="BG105">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="BH105" t="s">
         <v>264</v>
       </c>
       <c r="BI105">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="BJ105" t="s">
         <v>81</v>
@@ -23307,25 +23294,25 @@
         <v>264</v>
       </c>
       <c r="M109">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N109" t="s">
         <v>264</v>
       </c>
       <c r="O109">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="P109" t="s">
         <v>264</v>
       </c>
       <c r="Q109">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R109" t="s">
         <v>264</v>
       </c>
       <c r="S109">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="T109" t="s">
         <v>81</v>
@@ -23349,25 +23336,25 @@
         <v>264</v>
       </c>
       <c r="AA109">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AB109" t="s">
         <v>264</v>
       </c>
       <c r="AC109">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AD109" t="s">
         <v>264</v>
       </c>
       <c r="AE109">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AF109" t="s">
         <v>264</v>
       </c>
       <c r="AG109">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AH109" t="s">
         <v>81</v>
@@ -23391,25 +23378,25 @@
         <v>264</v>
       </c>
       <c r="AO109">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AP109" t="s">
         <v>264</v>
       </c>
       <c r="AQ109">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AR109" t="s">
         <v>264</v>
       </c>
       <c r="AS109">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AT109" t="s">
         <v>264</v>
       </c>
       <c r="AU109">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AV109" t="s">
         <v>81</v>
@@ -23433,25 +23420,25 @@
         <v>264</v>
       </c>
       <c r="BC109">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="BD109" t="s">
         <v>264</v>
       </c>
       <c r="BE109">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="BF109" t="s">
         <v>264</v>
       </c>
       <c r="BG109">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="BH109" t="s">
         <v>264</v>
       </c>
       <c r="BI109">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="BJ109" t="s">
         <v>81</v>
@@ -24095,25 +24082,25 @@
         <v>264</v>
       </c>
       <c r="M113">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N113" t="s">
         <v>264</v>
       </c>
       <c r="O113">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="P113" t="s">
         <v>264</v>
       </c>
       <c r="Q113">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R113" t="s">
         <v>264</v>
       </c>
       <c r="S113">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="T113" t="s">
         <v>81</v>
@@ -24137,25 +24124,25 @@
         <v>264</v>
       </c>
       <c r="AA113">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AB113" t="s">
         <v>264</v>
       </c>
       <c r="AC113">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AD113" t="s">
         <v>264</v>
       </c>
       <c r="AE113">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AF113" t="s">
         <v>264</v>
       </c>
       <c r="AG113">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AH113" t="s">
         <v>81</v>
@@ -24179,25 +24166,25 @@
         <v>264</v>
       </c>
       <c r="AO113">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AP113" t="s">
         <v>264</v>
       </c>
       <c r="AQ113">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AR113" t="s">
         <v>264</v>
       </c>
       <c r="AS113">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AT113" t="s">
         <v>264</v>
       </c>
       <c r="AU113">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AV113" t="s">
         <v>81</v>
@@ -24221,25 +24208,25 @@
         <v>264</v>
       </c>
       <c r="BC113">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="BD113" t="s">
         <v>264</v>
       </c>
       <c r="BE113">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="BF113" t="s">
         <v>264</v>
       </c>
       <c r="BG113">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="BH113" t="s">
         <v>264</v>
       </c>
       <c r="BI113">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="BJ113" t="s">
         <v>81</v>
@@ -24883,25 +24870,25 @@
         <v>264</v>
       </c>
       <c r="M117">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N117" t="s">
         <v>264</v>
       </c>
       <c r="O117">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="P117" t="s">
         <v>264</v>
       </c>
       <c r="Q117">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R117" t="s">
         <v>264</v>
       </c>
       <c r="S117">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="T117" t="s">
         <v>81</v>
@@ -24925,25 +24912,25 @@
         <v>264</v>
       </c>
       <c r="AA117">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AB117" t="s">
         <v>264</v>
       </c>
       <c r="AC117">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AD117" t="s">
         <v>264</v>
       </c>
       <c r="AE117">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AF117" t="s">
         <v>264</v>
       </c>
       <c r="AG117">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AH117" t="s">
         <v>81</v>
@@ -24967,25 +24954,25 @@
         <v>264</v>
       </c>
       <c r="AO117">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AP117" t="s">
         <v>264</v>
       </c>
       <c r="AQ117">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AR117" t="s">
         <v>264</v>
       </c>
       <c r="AS117">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AT117" t="s">
         <v>264</v>
       </c>
       <c r="AU117">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AV117" t="s">
         <v>81</v>
@@ -25009,25 +24996,25 @@
         <v>264</v>
       </c>
       <c r="BC117">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="BD117" t="s">
         <v>264</v>
       </c>
       <c r="BE117">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="BF117" t="s">
         <v>264</v>
       </c>
       <c r="BG117">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="BH117" t="s">
         <v>264</v>
       </c>
       <c r="BI117">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="BJ117" t="s">
         <v>81</v>
@@ -25671,25 +25658,25 @@
         <v>264</v>
       </c>
       <c r="M121">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N121" t="s">
         <v>264</v>
       </c>
       <c r="O121">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="P121" t="s">
         <v>264</v>
       </c>
       <c r="Q121">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R121" t="s">
         <v>264</v>
       </c>
       <c r="S121">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="T121" t="s">
         <v>81</v>
@@ -25713,25 +25700,25 @@
         <v>264</v>
       </c>
       <c r="AA121">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AB121" t="s">
         <v>264</v>
       </c>
       <c r="AC121">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AD121" t="s">
         <v>264</v>
       </c>
       <c r="AE121">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AF121" t="s">
         <v>264</v>
       </c>
       <c r="AG121">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AH121" t="s">
         <v>81</v>
@@ -25755,25 +25742,25 @@
         <v>264</v>
       </c>
       <c r="AO121">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AP121" t="s">
         <v>264</v>
       </c>
       <c r="AQ121">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AR121" t="s">
         <v>264</v>
       </c>
       <c r="AS121">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AT121" t="s">
         <v>264</v>
       </c>
       <c r="AU121">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AV121" t="s">
         <v>81</v>
@@ -25797,25 +25784,25 @@
         <v>264</v>
       </c>
       <c r="BC121">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="BD121" t="s">
         <v>264</v>
       </c>
       <c r="BE121">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="BF121" t="s">
         <v>264</v>
       </c>
       <c r="BG121">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="BH121" t="s">
         <v>264</v>
       </c>
       <c r="BI121">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="BJ121" t="s">
         <v>81</v>
@@ -26995,7 +26982,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BS127" xr:uid="{D1B4BD8D-D45C-47C4-BA12-9680DB674E92}">
+  <autoFilter ref="A1:BS127" xr:uid="{C640FC95-7351-4DD8-B2AB-BCEE86A36732}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BS127">
       <sortCondition ref="E1:E127"/>
     </sortState>

--- a/tabellen/concept/5.1/objectentabellen/objecten-concept-5.1-AM-assen-metreringen.xlsx
+++ b/tabellen/concept/5.1/objectentabellen/objecten-concept-5.1-AM-assen-metreringen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\100289\OneDrive\GitHub\NLCS\tabellen\concept\5.1\objectentabellen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{4DDC720F-3B08-4F6D-83D5-A4EA19694ADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDDEC9BC-187F-4CC1-90F5-3B27E88AB445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-1620" windowWidth="38640" windowHeight="21240" xr2:uid="{BC75A9B1-2806-48E4-93C5-18FF1B01BE42}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BC75A9B1-2806-48E4-93C5-18FF1B01BE42}"/>
   </bookViews>
   <sheets>
     <sheet name="objecten-concept-5.1-AM-assen-m" sheetId="1" r:id="rId1"/>
@@ -1977,7 +1977,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C640FC95-7351-4DD8-B2AB-BCEE86A36732}">
   <dimension ref="A1:BS127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
       <selection activeCell="A57" sqref="A57:XFD57"/>
     </sheetView>
   </sheetViews>
